--- a/tests/files/especialidades.xlsx
+++ b/tests/files/especialidades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="148">
   <si>
     <t xml:space="preserve">nivel_academico_id</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">modalidad_id</t>
   </si>
   <si>
-    <t xml:space="preserve">modalidad_estudiante</t>
+    <t xml:space="preserve">modalidad_especialidad</t>
   </si>
   <si>
     <t xml:space="preserve">tipo_plan_especialidad_id</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">1997-10-28</t>
   </si>
   <si>
-    <t xml:space="preserve">Normal</t>
+    <t xml:space="preserve">Sabatina</t>
   </si>
   <si>
     <t xml:space="preserve">Licenciatura</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Equiparación</t>
+    <t xml:space="preserve">Semanal</t>
   </si>
   <si>
     <t xml:space="preserve">LIN</t>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">PLAN 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equivalencia</t>
   </si>
 </sst>
 </file>
@@ -557,12 +554,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -574,8 +571,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1773,7 +1770,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>12</v>
